--- a/change/2024_小王同学_目标九宫格.xlsx
+++ b/change/2024_小王同学_目标九宫格.xlsx
@@ -26,7 +26,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">九宫格1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2033,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2155,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2397,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -2520,7 +2519,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
